--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,365 +718,183 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>K4qymNjt</t>
+          <t>xCf4Akf2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28/10/2024</t>
+          <t>29/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Kedah</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.25</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z2" t="n">
         <v>9</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>11</v>
-      </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="AN2" t="n">
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC2" t="n">
         <v>51</v>
       </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
       <c r="BD2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
         <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,370 @@
         <v>51</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UF2MW4Kq</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>21</v>
+      </c>
+      <c r="X3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>xt6UUrkd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Geylang</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tampines</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>34</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W4" t="n">
+        <v>34</v>
+      </c>
+      <c r="X4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -762,25 +762,25 @@
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>3.86</v>
+        <v>3.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S2" t="n">
         <v>1.31</v>
@@ -798,7 +798,7 @@
         <v>6.3</v>
       </c>
       <c r="X2" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y2" t="n">
         <v>6.8</v>
@@ -819,10 +819,10 @@
         <v>6.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="n">
         <v>300</v>
@@ -837,7 +837,7 @@
         <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>15.5</v>
@@ -861,7 +861,7 @@
         <v>45</v>
       </c>
       <c r="AS2" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
@@ -876,7 +876,7 @@
         <v>7.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY2" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -756,13 +756,13 @@
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -774,7 +774,7 @@
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>3.88</v>
+        <v>3.96</v>
       </c>
       <c r="Q2" t="n">
         <v>1.62</v>
@@ -789,16 +789,16 @@
         <v>3.26</v>
       </c>
       <c r="U2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="W2" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="X2" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Y2" t="n">
         <v>6.8</v>
@@ -807,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -819,52 +819,52 @@
         <v>6.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>90</v>
       </c>
       <c r="AL2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM2" t="n">
         <v>40</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>37</v>
       </c>
       <c r="AN2" t="n">
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AP2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS2" t="n">
         <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU2" t="n">
         <v>7.3</v>
@@ -873,13 +873,13 @@
         <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ2" t="n">
         <v>200</v>
@@ -888,7 +888,7 @@
         <v>200</v>
       </c>
       <c r="BB2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -783,10 +783,10 @@
         <v>2.02</v>
       </c>
       <c r="S2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="U2" t="n">
         <v>1.74</v>
@@ -795,16 +795,16 @@
         <v>2.04</v>
       </c>
       <c r="W2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA2" t="n">
         <v>9.5</v>
@@ -816,25 +816,25 @@
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="n">
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
         <v>90</v>
@@ -843,43 +843,43 @@
         <v>45</v>
       </c>
       <c r="AM2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN2" t="n">
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS2" t="n">
         <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AY2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ2" t="n">
         <v>200</v>
@@ -888,7 +888,7 @@
         <v>200</v>
       </c>
       <c r="BB2" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -765,16 +765,16 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>3.96</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.62</v>
@@ -783,16 +783,16 @@
         <v>2.02</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T2" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
         <v>6.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xCf4Akf2</t>
+          <t>UF2MW4Kq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,170 +728,170 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kedah</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>34</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T2" t="n">
         <v>5.5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="U2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU2" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO2" t="n">
+      <c r="AV2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX2" t="n">
         <v>7</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AY2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>15</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>200</v>
-      </c>
       <c r="BA2" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BD2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UF2MW4Kq</t>
+          <t>xt6UUrkd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,31 +920,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Geylang</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Tampines</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.8</v>
       </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3.4</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -953,311 +953,129 @@
         <v>34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="R3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="T3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V3" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="W3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="X3" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
         <v>19</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>34</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
         <v>21</v>
       </c>
-      <c r="AG3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="n">
         <v>15</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>23</v>
-      </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>51</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="n">
         <v>6.5</v>
       </c>
       <c r="AV3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB3" t="n">
         <v>26</v>
       </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>67</v>
-      </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>xt6UUrkd</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>08:45</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Geylang</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tampines</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W4" t="n">
-        <v>34</v>
-      </c>
-      <c r="X4" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UF2MW4Kq</t>
+          <t>Yq39Z5Qj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,170 +728,170 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Dun. Streda</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K2" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>4.65</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>3.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="T2" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>7.1</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>8.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH2" t="n">
         <v>13</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AI2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP2" t="n">
         <v>15</v>
       </c>
-      <c r="AC2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AQ2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC2" t="n">
         <v>51</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>67</v>
       </c>
       <c r="BD2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>xt6UUrkd</t>
+          <t>SSDbN2yR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Zilina</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tampines</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L3" t="n">
-        <v>2.25</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>9.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>13</v>
+        <v>4.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>4.5</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>4.33</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>7.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>10.25</v>
       </c>
       <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>23</v>
       </c>
-      <c r="AB3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AS3" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="n">
-        <v>101</v>
+        <v>8.25</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.5</v>
+        <v>37</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.5</v>
+        <v>35</v>
       </c>
       <c r="AZ3" t="n">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="BA3" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yq39Z5Qj</t>
+          <t>Ug79dz7j</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,354 +728,900 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dun. Streda</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.65</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W2" t="n">
         <v>8.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.1</v>
-      </c>
       <c r="X2" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
         <v>13</v>
       </c>
-      <c r="AI2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>24</v>
-      </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>4CLi9Djd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IaB1Slhd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AUSTRIA - 2. LIGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Yq39Z5Qj</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dun. Streda</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Podbrezova</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>SSDbN2yR</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>29/10/2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Zilina</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Ruzomberok</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G6" t="n">
         <v>1.42</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H6" t="n">
         <v>4.45</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I6" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J6" t="n">
         <v>1.87</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K6" t="n">
         <v>2.45</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L6" t="n">
         <v>6.1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M6" t="n">
         <v>1.04</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N6" t="n">
         <v>9.25</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O6" t="n">
         <v>1.21</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P6" t="n">
         <v>4.05</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q6" t="n">
         <v>1.65</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R6" t="n">
         <v>2.18</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S6" t="n">
         <v>1.31</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T6" t="n">
         <v>3.3</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U6" t="n">
         <v>1.83</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V6" t="n">
         <v>1.87</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W6" t="n">
         <v>7</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X6" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y6" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z6" t="n">
         <v>10.25</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB6" t="n">
         <v>27</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC6" t="n">
         <v>9.25</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD6" t="n">
         <v>9.25</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE6" t="n">
         <v>19</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF6" t="n">
         <v>90</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG6" t="n">
         <v>700</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH6" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI6" t="n">
         <v>50</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ6" t="n">
         <v>23</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK6" t="n">
         <v>175</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL6" t="n">
         <v>80</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM6" t="n">
         <v>65</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN6" t="n">
         <v>3.35</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO6" t="n">
         <v>6.4</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP6" t="n">
         <v>15</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ6" t="n">
         <v>17.5</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR6" t="n">
         <v>40</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS6" t="n">
         <v>175</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT6" t="n">
         <v>3.3</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU6" t="n">
         <v>7.7</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV6" t="n">
         <v>60</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW6" t="n">
         <v>8.25</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX6" t="n">
         <v>37</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY6" t="n">
         <v>35</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ6" t="n">
         <v>250</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA6" t="n">
         <v>250</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB6" t="n">
         <v>400</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4CLi9Djd</t>
+          <t>Yq39Z5Qj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Dun. Streda</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="K3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.95</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W3" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW3" t="n">
         <v>6.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AX3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IaB1Slhd</t>
+          <t>SSDbN2yR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,536 +1092,172 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Zilina</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.57</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>4.45</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.45</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
         <v>7.4</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>10.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
         <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>9.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.3</v>
+        <v>9.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.55</v>
+        <v>3.35</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>3.3</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.55</v>
+        <v>8.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AZ4" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Yq39Z5Qj</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Dun. Streda</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Podbrezova</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SSDbN2yR</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Zilina</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ruzomberok</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yq39Z5Qj</t>
+          <t>4CLi9Djd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dun. Streda</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH3" t="n">
         <v>8.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7</v>
-      </c>
       <c r="AV3" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SSDbN2yR</t>
+          <t>IaB1Slhd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,536 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zilina</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.42</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>9.25</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7</v>
-      </c>
       <c r="X4" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.25</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
         <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.25</v>
+        <v>6.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR4" t="n">
         <v>90</v>
       </c>
-      <c r="AG4" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>40</v>
-      </c>
       <c r="AS4" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.3</v>
+        <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
       </c>
       <c r="AW4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Yq39Z5Qj</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dun. Streda</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Podbrezova</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SSDbN2yR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Zilina</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ruzomberok</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW6" t="n">
         <v>8.25</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX6" t="n">
         <v>37</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY6" t="n">
         <v>35</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ6" t="n">
         <v>250</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA6" t="n">
         <v>250</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB6" t="n">
         <v>400</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -795,13 +795,13 @@
         <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
@@ -837,13 +837,13 @@
         <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IaB1Slhd</t>
+          <t>WIDwXGr3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yq39Z5Qj</t>
+          <t>IaB1Slhd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,355 +1274,3995 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dun. Streda</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>2.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>4.65</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.67</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>9.25</v>
       </c>
       <c r="X5" t="n">
-        <v>8.75</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO5" t="n">
         <v>14</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX5" t="n">
         <v>14</v>
       </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>24</v>
-      </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="BA5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BB5" t="n">
         <v>300</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>6kmEGWG0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>29QzHFUP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S4yNEAoD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>K4kBwMoA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hImJy0GM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UD9kUH8d</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mm6sWwvp</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>AC Ajaccio</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CYrglw0S</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A9nxhL03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Oxd2urHc</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IZkpjaVF</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>U5gzczE6</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pau FC</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WhYYsEn2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>xjLK5Hv9</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Um0abZWr</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Juve Stabia</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11</v>
+      </c>
+      <c r="X20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WCdGfiW7</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KYxBGYhR</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vJJsBCGl</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Yq39Z5Qj</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Dun. Streda</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Podbrezova</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>SSDbN2yR</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>29/10/2024</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Zilina</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Ruzomberok</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G25" t="n">
         <v>1.42</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H25" t="n">
         <v>4.45</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I25" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J25" t="n">
         <v>1.87</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K25" t="n">
         <v>2.45</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L25" t="n">
         <v>6.1</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M25" t="n">
         <v>1.04</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N25" t="n">
         <v>9.25</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O25" t="n">
         <v>1.21</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P25" t="n">
         <v>4.05</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q25" t="n">
         <v>1.65</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R25" t="n">
         <v>2.18</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S25" t="n">
         <v>1.31</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T25" t="n">
         <v>3.3</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U25" t="n">
         <v>1.83</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V25" t="n">
         <v>1.87</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W25" t="n">
         <v>7</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X25" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y25" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z25" t="n">
         <v>10.25</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA25" t="n">
         <v>12</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB25" t="n">
         <v>27</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC25" t="n">
         <v>9.25</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD25" t="n">
         <v>9.25</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE25" t="n">
         <v>19</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF25" t="n">
         <v>90</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG25" t="n">
         <v>700</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH25" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI25" t="n">
         <v>50</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ25" t="n">
         <v>23</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK25" t="n">
         <v>175</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL25" t="n">
         <v>80</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM25" t="n">
         <v>65</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN25" t="n">
         <v>3.35</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO25" t="n">
         <v>6.4</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP25" t="n">
         <v>15</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ25" t="n">
         <v>17.5</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR25" t="n">
         <v>40</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS25" t="n">
         <v>175</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT25" t="n">
         <v>3.3</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU25" t="n">
         <v>7.7</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV25" t="n">
         <v>60</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW25" t="n">
         <v>8.25</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX25" t="n">
         <v>37</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY25" t="n">
         <v>35</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ25" t="n">
         <v>250</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA25" t="n">
         <v>250</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB25" t="n">
         <v>400</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC25" t="n">
         <v>51</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD25" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>bX7Spsu0</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>13</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1001,16 +1001,16 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1052,7 +1052,7 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -1067,7 +1067,7 @@
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -1493,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
         <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,13 +1699,13 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1723,22 +1723,22 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
@@ -1750,10 +1750,10 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
         <v>5</v>
@@ -1762,22 +1762,22 @@
         <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,16 +1786,16 @@
         <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H8" t="n">
         <v>3.75</v>
@@ -1869,10 +1869,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -2051,10 +2051,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2221,10 +2221,10 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2427,10 +2427,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
@@ -2445,13 +2445,13 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2499,7 +2499,7 @@
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
@@ -2517,7 +2517,7 @@
         <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>51</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2779,10 +2779,10 @@
         <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
         <v>1.5</v>
@@ -2791,10 +2791,10 @@
         <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2815,13 +2815,13 @@
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
@@ -2863,7 +2863,7 @@
         <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
         <v>2.5</v>
@@ -2884,10 +2884,10 @@
         <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
         <v>251</v>
@@ -4053,10 +4053,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4235,10 +4235,10 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4599,10 +4599,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4939,16 +4939,16 @@
         <v>4.45</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="n">
         <v>2.45</v>
       </c>
       <c r="L25" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4960,43 +4960,43 @@
         <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="Q25" t="n">
         <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S25" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
         <v>3.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
         <v>10.25</v>
       </c>
       <c r="AA25" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
         <v>9.25</v>
@@ -5005,19 +5005,19 @@
         <v>9.25</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -5032,16 +5032,16 @@
         <v>65</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
         <v>6.4</v>
       </c>
       <c r="AP25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>40</v>
@@ -5053,7 +5053,7 @@
         <v>3.3</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV25" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -807,10 +807,10 @@
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -828,10 +828,10 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>9.5</v>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -989,13 +989,13 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,19 +1007,19 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -1067,7 +1067,7 @@
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1320,7 +1320,7 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.85</v>
@@ -1329,10 +1329,10 @@
         <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="U5" t="n">
         <v>1.65</v>
@@ -1341,16 +1341,16 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
         <v>20</v>
@@ -1374,16 +1374,16 @@
         <v>350</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
@@ -1392,31 +1392,31 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>60</v>
       </c>
       <c r="AR5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS5" t="n">
         <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW5" t="n">
         <v>4.55</v>
@@ -1425,16 +1425,16 @@
         <v>14</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -1663,7 +1663,7 @@
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.75</v>
@@ -1875,7 +1875,7 @@
         <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
         <v>3.25</v>
@@ -1986,7 +1986,7 @@
         <v>451</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2057,7 +2057,7 @@
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T9" t="n">
         <v>2.5</v>
@@ -2403,10 +2403,10 @@
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3361,7 +3361,7 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3391,7 +3391,7 @@
         <v>17</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>5.5</v>
@@ -3430,7 +3430,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -4044,7 +4044,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -4083,13 +4083,13 @@
         <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4113,13 +4113,13 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>5.5</v>
@@ -4235,10 +4235,10 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4751,46 +4751,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L24" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
         <v>1.32</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
@@ -4802,25 +4802,25 @@
         <v>7.1</v>
       </c>
       <c r="X24" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y24" t="n">
         <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB24" t="n">
         <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>16.5</v>
@@ -4832,34 +4832,34 @@
         <v>600</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
         <v>45</v>
@@ -4868,25 +4868,25 @@
         <v>175</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV24" t="n">
         <v>55</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AX24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA24" t="n">
         <v>150</v>
@@ -5121,7 +5121,7 @@
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>2.25</v>
@@ -759,82 +759,82 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -849,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -861,10 +861,10 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -876,19 +876,19 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1159,7 @@
         <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1320,7 +1320,7 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
         <v>1.85</v>
@@ -1332,7 +1332,7 @@
         <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U5" t="n">
         <v>1.65</v>
@@ -1344,91 +1344,91 @@
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>21</v>
       </c>
-      <c r="AM5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS5" t="n">
         <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV5" t="n">
         <v>55</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AX5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA5" t="n">
         <v>90</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6kmEGWG0</t>
+          <t>SUnqo1Lh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.38</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
         <v>13</v>
       </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29QzHFUP</t>
+          <t>6kmEGWG0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1687,10 +1687,10 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,106 +1699,106 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>9</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AL7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AQ7" t="n">
         <v>29</v>
       </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S4yNEAoD</t>
+          <t>29QzHFUP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,151 +1830,151 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.75</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>15</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AK8" t="n">
         <v>21</v>
       </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
         <v>51</v>
       </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>
@@ -1983,7 +1983,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K4kBwMoA</t>
+          <t>S4yNEAoD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.62</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>9</v>
       </c>
       <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>17</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
         <v>41</v>
       </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hImJy0GM</t>
+          <t>K4kBwMoA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,55 +2194,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
         <v>2.75</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
@@ -2251,25 +2251,25 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2284,43 +2284,43 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>10</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>19</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,22 +2329,22 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
       </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UD9kUH8d</t>
+          <t>hImJy0GM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,49 +2376,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,31 +2427,31 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2463,31 +2463,31 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>34</v>
       </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2499,34 +2499,34 @@
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mm6sWwvp</t>
+          <t>UD9kUH8d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6</v>
       </c>
-      <c r="X12" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
         <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
         <v>51</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB12" t="n">
         <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CYrglw0S</t>
+          <t>Mm6sWwvp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,31 +2740,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2779,10 +2779,10 @@
         <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
         <v>1.5</v>
@@ -2791,106 +2791,106 @@
         <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>7</v>
       </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7</v>
       </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
         <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>29</v>
       </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="AR13" t="n">
         <v>51</v>
       </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
         <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A9nxhL03</t>
+          <t>CYrglw0S</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,85 +2922,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>6.25</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
         <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>17</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
@@ -3009,70 +3009,70 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
         <v>34</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>67</v>
-      </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oxd2urHc</t>
+          <t>A9nxhL03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,157 +3104,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>1.44</v>
       </c>
       <c r="H15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T15" t="n">
         <v>3.4</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>41</v>
-      </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
         <v>9</v>
       </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>7</v>
       </c>
-      <c r="AI15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
         <v>101</v>
       </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IZkpjaVF</t>
+          <t>Oxd2urHc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,16 +3286,16 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
@@ -3307,7 +3307,7 @@
         <v>4.33</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>2.63</v>
@@ -3319,31 +3319,31 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -3355,13 +3355,13 @@
         <v>41</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3373,13 +3373,13 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
@@ -3391,7 +3391,7 @@
         <v>17</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>5.5</v>
@@ -3406,13 +3406,13 @@
         <v>67</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3430,7 +3430,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U5gzczE6</t>
+          <t>IZkpjaVF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,31 +3468,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3507,10 +3507,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3519,28 +3519,28 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
         <v>13</v>
       </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
@@ -3549,73 +3549,73 @@
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
         <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
         <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>67</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WhYYsEn2</t>
+          <t>U5gzczE6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,162 +3645,162 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="W18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
         <v>9</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
         <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
         <v>67</v>
       </c>
-      <c r="AW18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>101</v>
-      </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xjLK5Hv9</t>
+          <t>WhYYsEn2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,31 +3832,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3871,16 +3871,16 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
         <v>1.95</v>
@@ -3889,31 +3889,31 @@
         <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
         <v>17</v>
       </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>41</v>
-      </c>
       <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
         <v>34</v>
       </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
@@ -3922,43 +3922,43 @@
         <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
         <v>67</v>
       </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
@@ -3967,22 +3967,22 @@
         <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Um0abZWr</t>
+          <t>xjLK5Hv9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,67 +4014,67 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
         <v>9.5</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W20" t="n">
-        <v>11</v>
-      </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -4083,31 +4083,31 @@
         <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
@@ -4116,10 +4116,10 @@
         <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>5.5</v>
@@ -4134,37 +4134,37 @@
         <v>67</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
         <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WCdGfiW7</t>
+          <t>Um0abZWr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,124 +4196,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
         <v>3.4</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.4</v>
       </c>
-      <c r="P21" t="n">
+      <c r="T21" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
         <v>13</v>
       </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
       <c r="Z21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="n">
         <v>29</v>
       </c>
-      <c r="AA21" t="n">
-        <v>23</v>
-      </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="n">
         <v>81</v>
@@ -4322,31 +4322,31 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA21" t="n">
         <v>51</v>
       </c>
-      <c r="BA21" t="n">
-        <v>81</v>
-      </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KYxBGYhR</t>
+          <t>WCdGfiW7</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,118 +4378,118 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
@@ -4501,34 +4501,34 @@
         <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vJJsBCGl</t>
+          <t>KYxBGYhR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,157 +4560,157 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV23" t="n">
         <v>67</v>
       </c>
-      <c r="AS23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Yq39Z5Qj</t>
+          <t>vJJsBCGl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dun. Streda</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.1</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.32</v>
-      </c>
       <c r="L24" t="n">
-        <v>4.85</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S24" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
         <v>13</v>
       </c>
-      <c r="AA24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
         <v>8</v>
       </c>
-      <c r="AE24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX24" t="n">
         <v>17</v>
       </c>
-      <c r="AK24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ24" t="n">
+      <c r="AY24" t="n">
         <v>23</v>
       </c>
-      <c r="AR24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>28</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SSDbN2yR</t>
+          <t>Yq39Z5Qj</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,157 +4924,157 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Zilina</t>
+          <t>Dun. Streda</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
-        <v>4.45</v>
+        <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="L25" t="n">
-        <v>6.2</v>
+        <v>4.85</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="S25" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7.1</v>
       </c>
       <c r="X25" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AB25" t="n">
         <v>26</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="n">
         <v>600</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AJ25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>23</v>
       </c>
-      <c r="AK25" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>17</v>
-      </c>
       <c r="AR25" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS25" t="n">
         <v>175</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AV25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.25</v>
+        <v>6.8</v>
       </c>
       <c r="AX25" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AY25" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AZ25" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BA25" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BB25" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bX7Spsu0</t>
+          <t>SSDbN2yR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,172 +5096,354 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zilina</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>1.42</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
       <c r="I26" t="n">
-        <v>1.86</v>
+        <v>7.1</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>bX7Spsu0</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
         <v>13</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O27" t="n">
         <v>1.2</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>1.7</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R27" t="n">
         <v>2.1</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S27" t="n">
         <v>1.33</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T27" t="n">
         <v>3.25</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U27" t="n">
         <v>1.62</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V27" t="n">
         <v>2.2</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W27" t="n">
         <v>13</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X27" t="n">
         <v>21</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y27" t="n">
         <v>13</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z27" t="n">
         <v>41</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA27" t="n">
         <v>29</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB27" t="n">
         <v>34</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC27" t="n">
         <v>13</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD27" t="n">
         <v>7</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE27" t="n">
         <v>13</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF27" t="n">
         <v>41</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG27" t="n">
         <v>151</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH27" t="n">
         <v>9</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI27" t="n">
         <v>10</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ27" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK27" t="n">
         <v>17</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL27" t="n">
         <v>15</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM27" t="n">
         <v>21</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN27" t="n">
         <v>6</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO27" t="n">
         <v>19</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP27" t="n">
         <v>23</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AQ27" t="n">
         <v>67</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AR27" t="n">
         <v>67</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS27" t="n">
         <v>151</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT27" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU27" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV27" t="n">
         <v>41</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW27" t="n">
         <v>4</v>
       </c>
-      <c r="AX26" t="n">
+      <c r="AX27" t="n">
         <v>10</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AY27" t="n">
         <v>19</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AZ27" t="n">
         <v>29</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BA27" t="n">
         <v>41</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BB27" t="n">
         <v>101</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BC27" t="n">
         <v>81</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BD27" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,13 +753,13 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>2.88</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -798,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
@@ -840,10 +840,10 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -867,7 +867,7 @@
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -938,7 +938,7 @@
         <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -953,28 +953,28 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,10 +1007,10 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1046,13 +1046,13 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1159,7 +1159,7 @@
         <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1192,7 +1192,7 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1204,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1320,7 +1320,7 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.85</v>
@@ -1329,10 +1329,10 @@
         <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T5" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="U5" t="n">
         <v>1.65</v>
@@ -1341,13 +1341,13 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>32</v>
@@ -1356,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
@@ -1374,7 +1374,7 @@
         <v>400</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI5" t="n">
         <v>12.5</v>
@@ -1386,13 +1386,13 @@
         <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>14.5</v>
@@ -1410,7 +1410,7 @@
         <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU5" t="n">
         <v>6.8</v>
@@ -1422,16 +1422,16 @@
         <v>4.45</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -2168,7 +2168,7 @@
         <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2403,10 +2403,10 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
@@ -2591,10 +2591,10 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
         <v>2.05</v>
@@ -2618,7 +2618,7 @@
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
@@ -2651,7 +2651,7 @@
         <v>9.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2660,7 +2660,7 @@
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
@@ -2669,7 +2669,7 @@
         <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2696,10 +2696,10 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3689,10 +3689,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3707,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -3740,7 +3740,7 @@
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3767,7 +3767,7 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
@@ -3794,7 +3794,7 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
         <v>67</v>
@@ -4041,22 +4041,22 @@
         <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -4214,19 +4214,19 @@
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
@@ -4253,10 +4253,10 @@
         <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>13</v>
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
@@ -4295,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>17</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H22" t="n">
         <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -4405,10 +4405,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4429,10 +4429,10 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
         <v>8</v>
@@ -4447,13 +4447,13 @@
         <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
         <v>5.5</v>
@@ -4465,19 +4465,19 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
@@ -4486,10 +4486,10 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
@@ -4501,7 +4501,7 @@
         <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
         <v>2.5</v>
@@ -4528,7 +4528,7 @@
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4832,7 +4832,7 @@
         <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -4850,7 +4850,7 @@
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
@@ -4883,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yq39Z5Qj</t>
+          <t>bX7Spsu0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,536 +4914,172 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dun. Streda</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R25" t="n">
         <v>2.1</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.05</v>
-      </c>
       <c r="S25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="X25" t="n">
-        <v>8.25</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>17</v>
       </c>
-      <c r="AK25" t="n">
-        <v>100</v>
-      </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.6</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AS25" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AZ25" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="BA25" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="BB25" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SSDbN2yR</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Zilina</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Ruzomberok</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>bX7Spsu0</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Yverdon</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>13</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>13</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD27" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -753,13 +753,13 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>2.88</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -798,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
@@ -840,10 +840,10 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -867,7 +867,7 @@
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -938,7 +938,7 @@
         <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1141,16 +1141,16 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.7</v>
@@ -1192,7 +1192,7 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1204,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1511,7 +1511,7 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T6" t="n">
         <v>2.2</v>
@@ -1875,7 +1875,7 @@
         <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2206,10 +2206,10 @@
         <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2239,7 +2239,7 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T10" t="n">
         <v>2.5</v>
@@ -2272,7 +2272,7 @@
         <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2284,7 +2284,7 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2421,10 +2421,10 @@
         <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U11" t="n">
         <v>1.91</v>
@@ -2436,19 +2436,19 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -2466,10 +2466,10 @@
         <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2508,7 +2508,7 @@
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>5.5</v>
@@ -2517,7 +2517,7 @@
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2603,10 +2603,10 @@
         <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2758,13 +2758,13 @@
         <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2773,22 +2773,22 @@
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
         <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
@@ -2821,7 +2821,7 @@
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
@@ -2836,7 +2836,7 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>51</v>
@@ -2866,7 +2866,7 @@
         <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>9.5</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
         <v>29</v>
@@ -2964,7 +2964,7 @@
         <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
         <v>2.35</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3707,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -3740,7 +3740,7 @@
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3767,7 +3767,7 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
@@ -3785,7 +3785,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX18" t="n">
         <v>15</v>
@@ -3794,7 +3794,7 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
         <v>67</v>
@@ -4041,16 +4041,16 @@
         <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>2.25</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J21" t="n">
         <v>4.33</v>
@@ -4220,13 +4220,13 @@
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
@@ -4259,7 +4259,7 @@
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>41</v>
@@ -4277,7 +4277,7 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4289,22 +4289,22 @@
         <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
         <v>26</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
@@ -4316,7 +4316,7 @@
         <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
         <v>201</v>
@@ -4334,13 +4334,13 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY21" t="n">
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
         <v>51</v>
@@ -4405,10 +4405,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -4766,7 +4766,7 @@
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -4799,22 +4799,22 @@
         <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
         <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
         <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
         <v>10</v>
@@ -4838,13 +4838,13 @@
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
@@ -4856,13 +4856,13 @@
         <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
         <v>151</v>
@@ -4889,7 +4889,7 @@
         <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
         <v>151</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4957,10 +4957,10 @@
         <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
@@ -4975,7 +4975,7 @@
         <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
         <v>2.2</v>
@@ -4984,19 +4984,19 @@
         <v>13</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>41</v>
       </c>
       <c r="AA25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="n">
         <v>29</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>34</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -5017,22 +5017,22 @@
         <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
@@ -5041,7 +5041,7 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5059,19 +5059,19 @@
         <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>19</v>
       </c>
       <c r="AZ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB25" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ug79dz7j</t>
+          <t>WIDwXGr3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,82 +738,82 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.75</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
         <v>10</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
         <v>11</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -822,76 +822,76 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
         <v>21</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>19</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4CLi9Djd</t>
+          <t>Czz19Lu9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.25</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="V3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>10</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
         <v>21</v>
       </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
         <v>301</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AT3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU3" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WIDwXGr3</t>
+          <t>8Uks6nZG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
         <v>11</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AP4" t="n">
         <v>29</v>
       </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
         <v>29</v>
       </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA4" t="n">
         <v>151</v>
       </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>67</v>
-      </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IaB1Slhd</t>
+          <t>SUnqo1Lh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>9.25</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
       <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
         <v>19</v>
       </c>
-      <c r="AM5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AY5" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SUnqo1Lh</t>
+          <t>6kmEGWG0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
         <v>29</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>29</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6kmEGWG0</t>
+          <t>29QzHFUP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1687,10 +1687,10 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,106 +1699,106 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.95</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29QzHFUP</t>
+          <t>S4yNEAoD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,151 +1830,151 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>12</v>
       </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>
@@ -1983,16 +1983,16 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S4yNEAoD</t>
+          <t>K4kBwMoA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.91</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>9</v>
       </c>
       <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
         <v>10</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX9" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>K4kBwMoA</t>
+          <t>hImJy0GM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2227,22 +2227,22 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
@@ -2251,28 +2251,28 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9</v>
       </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
       <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
         <v>34</v>
       </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2284,67 +2284,67 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
         <v>67</v>
       </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>67</v>
       </c>
-      <c r="AW10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hImJy0GM</t>
+          <t>UD9kUH8d</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,82 +2376,82 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.05</v>
       </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.91</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2463,7 +2463,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
         <v>9.5</v>
@@ -2472,19 +2472,19 @@
         <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
         <v>34</v>
       </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
@@ -2499,34 +2499,34 @@
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UD9kUH8d</t>
+          <t>Mm6sWwvp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
         <v>19</v>
       </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mm6sWwvp</t>
+          <t>CYrglw0S</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,157 +2740,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>351</v>
       </c>
       <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>12</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
         <v>26</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
         <v>29</v>
       </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CYrglw0S</t>
+          <t>Oxd2urHc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,85 +2922,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
@@ -3009,70 +3009,70 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
         <v>15</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
         <v>34</v>
       </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
         <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A9nxhL03</t>
+          <t>IZkpjaVF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,55 +3104,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.44</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>6.25</v>
+        <v>1.95</v>
       </c>
       <c r="J15" t="n">
-        <v>1.95</v>
+        <v>4.33</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
         <v>1.8</v>
@@ -3161,31 +3161,31 @@
         <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10</v>
       </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
@@ -3194,67 +3194,67 @@
         <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>34</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>126</v>
-      </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oxd2urHc</t>
+          <t>U5gzczE6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,154 +3286,154 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.4</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.33</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
         <v>10</v>
-      </c>
-      <c r="X16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
         <v>67</v>
       </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IZkpjaVF</t>
+          <t>WhYYsEn2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3463,90 +3463,90 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.95</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>1.8</v>
       </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
         <v>29</v>
       </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,70 +3555,70 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
         <v>67</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>81</v>
       </c>
       <c r="AS17" t="n">
         <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>U5gzczE6</t>
+          <t>xjLK5Hv9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,150 +3645,150 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
         <v>9.5</v>
       </c>
       <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>21</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AP18" t="n">
         <v>29</v>
       </c>
-      <c r="AC18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
         <v>67</v>
       </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
       <c r="AW18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
@@ -3800,7 +3800,7 @@
         <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WhYYsEn2</t>
+          <t>Um0abZWr</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,82 +3832,82 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4.33</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="J19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.75</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.95</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3919,70 +3919,70 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="n">
         <v>15</v>
       </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY19" t="n">
         <v>21</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AZ19" t="n">
         <v>34</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>81</v>
-      </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>xjLK5Hv9</t>
+          <t>WCdGfiW7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,55 +4014,55 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
         <v>1.95</v>
@@ -4071,31 +4071,31 @@
         <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -4104,43 +4104,43 @@
         <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
         <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4149,22 +4149,22 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Um0abZWr</t>
+          <t>KYxBGYhR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,157 +4196,157 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W21" t="n">
-        <v>12</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>21</v>
       </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>41</v>
-      </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
         <v>15</v>
       </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV21" t="n">
         <v>67</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AW21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA21" t="n">
         <v>101</v>
       </c>
-      <c r="AS21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>51</v>
-      </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WCdGfiW7</t>
+          <t>vJJsBCGl</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,148 +4378,148 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.75</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V22" t="n">
         <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.8</v>
       </c>
       <c r="W22" t="n">
         <v>8</v>
       </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
         <v>13</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
         <v>26</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
         <v>17</v>
       </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>15</v>
-      </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
@@ -4528,7 +4528,7 @@
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KYxBGYhR</t>
+          <t>bX7Spsu0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4555,531 +4555,167 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>12</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
         <v>7</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AI23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO23" t="n">
         <v>17</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
         <v>67</v>
       </c>
-      <c r="AG23" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>34</v>
       </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>67</v>
-      </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>vJJsBCGl</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ITALY - SERIE B</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>bX7Spsu0</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Yverdon</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>13</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>13</v>
-      </c>
-      <c r="X25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD25" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -777,16 +777,16 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.92</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.7</v>
@@ -795,7 +795,7 @@
         <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -804,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -828,16 +828,16 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -846,25 +846,25 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -882,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
         <v>67</v>
@@ -935,7 +935,7 @@
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,13 +944,13 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -980,13 +980,13 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1010,16 +1010,16 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1058,13 +1058,13 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1147,7 +1147,7 @@
         <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1511,7 +1511,7 @@
         <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T6" t="n">
         <v>2.75</v>
@@ -1693,7 +1693,7 @@
         <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T7" t="n">
         <v>2.75</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -2400,13 +2400,13 @@
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
@@ -2418,13 +2418,13 @@
         <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2439,19 +2439,19 @@
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2475,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
@@ -2484,25 +2484,25 @@
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2511,7 +2511,7 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
         <v>19</v>
@@ -2520,7 +2520,7 @@
         <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
@@ -2597,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2639,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>67</v>
@@ -2651,25 +2651,25 @@
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>19</v>
       </c>
       <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
         <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
       </c>
       <c r="AM12" t="n">
         <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2696,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY12" t="n">
         <v>41</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -2791,22 +2791,22 @@
         <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>21</v>
@@ -2836,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>34</v>
@@ -2851,19 +2851,19 @@
         <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
         <v>2.5</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Oxd2urHc</t>
+          <t>A9nxhL03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,85 +2922,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9</v>
+        <v>6.25</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
+        <v>17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>10</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="AA14" t="n">
         <v>11</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AB14" t="n">
         <v>21</v>
       </c>
-      <c r="Y14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
@@ -3009,70 +3009,70 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
         <v>15</v>
       </c>
-      <c r="AL14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
         <v>101</v>
       </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IZkpjaVF</t>
+          <t>Oxd2urHc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,145 +3104,145 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.63</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>17</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>U5gzczE6</t>
+          <t>IZkpjaVF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,37 +3286,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3337,28 +3337,28 @@
         <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
@@ -3367,73 +3367,73 @@
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
         <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WhYYsEn2</t>
+          <t>U5gzczE6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3463,162 +3463,162 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.2</v>
       </c>
-      <c r="I17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
         <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>xjLK5Hv9</t>
+          <t>WhYYsEn2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.1</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3689,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3707,22 +3707,22 @@
         <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
         <v>17</v>
       </c>
-      <c r="Y18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>41</v>
-      </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
         <v>8</v>
@@ -3731,7 +3731,7 @@
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3740,40 +3740,40 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
         <v>2.63</v>
@@ -3785,22 +3785,22 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Um0abZWr</t>
+          <t>xjLK5Hv9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,70 +3832,70 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="n">
         <v>4.33</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.8</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
@@ -3907,46 +3907,46 @@
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
         <v>67</v>
@@ -3955,34 +3955,34 @@
         <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WCdGfiW7</t>
+          <t>Um0abZWr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,157 +4014,157 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
         <v>2.75</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
         <v>3.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="Q20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="n">
         <v>13</v>
       </c>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
       <c r="Z20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="n">
         <v>29</v>
       </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
         <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM20" t="n">
         <v>26</v>
       </c>
-      <c r="AL20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
         <v>51</v>
       </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
       <c r="AW20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
         <v>51</v>
       </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KYxBGYhR</t>
+          <t>WCdGfiW7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,118 +4196,118 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.5</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.95</v>
       </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
         <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4322,31 +4322,31 @@
         <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vJJsBCGl</t>
+          <t>KYxBGYhR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,67 +4378,67 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
         <v>2</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>1.75</v>
       </c>
-      <c r="V22" t="n">
-        <v>2</v>
-      </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
@@ -4447,88 +4447,88 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>13</v>
       </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
       <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
         <v>34</v>
       </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
         <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bX7Spsu0</t>
+          <t>vJJsBCGl</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4555,168 +4555,532 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
         <v>3.5</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.75</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
         <v>19</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
         <v>13</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>bX7Spsu0</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
         <v>7</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lzKILqFr</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>New York Red Bulls</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>19</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>11</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
         <v>12</v>
       </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD25" t="n">
         <v>151</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>15</v>
@@ -1147,7 +1147,7 @@
         <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6kmEGWG0</t>
+          <t>vV9BlFAm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.38</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="V6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" t="n">
         <v>5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29QzHFUP</t>
+          <t>6kmEGWG0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1687,118 +1687,118 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>9</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AL7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AQ7" t="n">
         <v>29</v>
       </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S4yNEAoD</t>
+          <t>29QzHFUP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,151 +1830,151 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.75</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>15</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AK8" t="n">
         <v>21</v>
       </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>
@@ -1983,16 +1983,16 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K4kBwMoA</t>
+          <t>S4yNEAoD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
         <v>2.3</v>
       </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
         <v>13</v>
       </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>29</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
       <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
         <v>101</v>
       </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hImJy0GM</t>
+          <t>K4kBwMoA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2227,22 +2227,22 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
@@ -2251,28 +2251,28 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2284,67 +2284,67 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
         <v>34</v>
       </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
       </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UD9kUH8d</t>
+          <t>hImJy0GM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,19 +2376,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
         <v>3.4</v>
@@ -2397,61 +2397,61 @@
         <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
         <v>19</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2463,55 +2463,55 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
         <v>19</v>
@@ -2523,10 +2523,10 @@
         <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mm6sWwvp</t>
+          <t>UD9kUH8d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
         <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
       </c>
       <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
         <v>34</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8</v>
       </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AY12" t="n">
         <v>29</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
         <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CYrglw0S</t>
+          <t>Mm6sWwvp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,157 +2740,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
         <v>7</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>10</v>
-      </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7</v>
       </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
         <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>29</v>
       </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A9nxhL03</t>
+          <t>CYrglw0S</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,157 +2922,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
         <v>4.75</v>
       </c>
-      <c r="I14" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="AX14" t="n">
         <v>17</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>34</v>
-      </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oxd2urHc</t>
+          <t>A9nxhL03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,133 +3104,133 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>1.83</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
         <v>21</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AI15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP15" t="n">
         <v>15</v>
       </c>
-      <c r="Z15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AQ15" t="n">
         <v>17</v>
       </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>81</v>
-      </c>
       <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
         <v>101</v>
       </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
         <v>8.5</v>
@@ -3239,22 +3239,22 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IZkpjaVF</t>
+          <t>Oxd2urHc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,28 +3286,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>2.5</v>
@@ -3319,37 +3319,37 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.8</v>
       </c>
-      <c r="V16" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
         <v>41</v>
@@ -3361,25 +3361,25 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
@@ -3391,37 +3391,37 @@
         <v>15</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>6</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR16" t="n">
         <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX16" t="n">
         <v>10</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U5gzczE6</t>
+          <t>IZkpjaVF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,31 +3468,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3507,10 +3507,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3519,28 +3519,28 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
@@ -3549,73 +3549,73 @@
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
         <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WhYYsEn2</t>
+          <t>U5gzczE6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,162 +3645,162 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.2</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
         <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>11</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
         <v>67</v>
       </c>
-      <c r="AW18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>101</v>
-      </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xjLK5Hv9</t>
+          <t>WhYYsEn2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,55 +3832,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.15</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
         <v>1.95</v>
@@ -3889,25 +3889,25 @@
         <v>1.8</v>
       </c>
       <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>9</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
         <v>17</v>
       </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>34</v>
-      </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3922,43 +3922,43 @@
         <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>34</v>
       </c>
-      <c r="AN19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>67</v>
-      </c>
       <c r="AR19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
@@ -3967,22 +3967,22 @@
         <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Um0abZWr</t>
+          <t>xjLK5Hv9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,73 +4014,73 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
         <v>2.75</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
         <v>29</v>
@@ -4089,40 +4089,40 @@
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
@@ -4134,37 +4134,37 @@
         <v>67</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
         <v>201</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WCdGfiW7</t>
+          <t>Um0abZWr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,157 +4196,157 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.75</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="U21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
         <v>12</v>
       </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
       <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
         <v>26</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>23</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
       </c>
       <c r="AI21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX21" t="n">
         <v>13</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
+      <c r="AY21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA21" t="n">
         <v>67</v>
       </c>
-      <c r="AW21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>81</v>
-      </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KYxBGYhR</t>
+          <t>WCdGfiW7</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,31 +4378,31 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -4429,79 +4429,79 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
         <v>2.5</v>
@@ -4513,19 +4513,19 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
         <v>251</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vJJsBCGl</t>
+          <t>KYxBGYhR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,112 +4560,112 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>4.33</v>
@@ -4674,43 +4674,43 @@
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bX7Spsu0</t>
+          <t>vJJsBCGl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4737,90 +4737,90 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>2.35</v>
       </c>
       <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
         <v>3.6</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.7</v>
       </c>
-      <c r="R24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z24" t="n">
         <v>21</v>
       </c>
-      <c r="Y24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>41</v>
-      </c>
       <c r="AA24" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
@@ -4829,70 +4829,70 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
         <v>21</v>
       </c>
-      <c r="AN24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
         <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
         <v>7.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4904,182 +4904,364 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>bX7Spsu0</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>15</v>
+      </c>
+      <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>lzKILqFr</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>29/10/2024</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>USA - MLS</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Columbus Crew</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>New York Red Bulls</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>1.75</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>4.1</v>
       </c>
-      <c r="I25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J26" t="n">
         <v>2.25</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>2.5</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>4.33</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>1.02</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N26" t="n">
         <v>19</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O26" t="n">
         <v>1.14</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q26" t="n">
         <v>1.5</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R26" t="n">
         <v>2.5</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="S26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T26" t="n">
         <v>3.75</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U26" t="n">
         <v>1.5</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V26" t="n">
         <v>2.5</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W26" t="n">
         <v>11</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X26" t="n">
         <v>11</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y26" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z26" t="n">
         <v>15</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA26" t="n">
         <v>12</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB26" t="n">
         <v>19</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC26" t="n">
         <v>19</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD26" t="n">
         <v>8</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE26" t="n">
         <v>12</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF26" t="n">
         <v>34</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG26" t="n">
         <v>101</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AH26" t="n">
         <v>17</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AI26" t="n">
         <v>26</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AJ26" t="n">
         <v>13</v>
       </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
         <v>29</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AM26" t="n">
         <v>29</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AN26" t="n">
         <v>4</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AO26" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AP26" t="n">
         <v>15</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AQ26" t="n">
         <v>26</v>
       </c>
-      <c r="AR25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT25" t="n">
+      <c r="AR26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT26" t="n">
         <v>3.75</v>
       </c>
-      <c r="AU25" t="n">
+      <c r="AU26" t="n">
         <v>7</v>
       </c>
-      <c r="AV25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW25" t="n">
+      <c r="AV26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW26" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX25" t="n">
+      <c r="AX26" t="n">
         <v>21</v>
       </c>
-      <c r="AY25" t="n">
+      <c r="AY26" t="n">
         <v>23</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
         <v>67</v>
       </c>
-      <c r="BA25" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB25" t="n">
+      <c r="BB26" t="n">
         <v>126</v>
       </c>
-      <c r="BC25" t="n">
+      <c r="BC26" t="n">
         <v>301</v>
       </c>
-      <c r="BD25" t="n">
+      <c r="BD26" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -750,10 +750,10 @@
         <v>2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -765,22 +765,22 @@
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -837,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -876,7 +876,7 @@
         <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,16 +947,16 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
@@ -971,10 +971,10 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1344,7 +1344,7 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>2.3</v>
@@ -2057,7 +2057,7 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
         <v>3.25</v>
@@ -2072,7 +2072,7 @@
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2102,19 +2102,19 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2147,10 +2147,10 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
@@ -2165,7 +2165,7 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2239,7 +2239,7 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
         <v>2.5</v>
@@ -2585,22 +2585,22 @@
         <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2979,19 +2979,19 @@
         <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
       </c>
       <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
         <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
@@ -3012,25 +3012,25 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3528,10 +3528,10 @@
         <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
         <v>41</v>
@@ -3561,13 +3561,13 @@
         <v>7.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -3582,7 +3582,7 @@
         <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>67</v>
@@ -4044,7 +4044,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.8</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -4402,13 +4402,13 @@
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4417,10 +4417,10 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4435,7 +4435,7 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -4447,7 +4447,7 @@
         <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
         <v>41</v>
@@ -4468,10 +4468,10 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
@@ -4486,10 +4486,10 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
@@ -4769,10 +4769,10 @@
         <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4963,10 +4963,10 @@
         <v>4.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="n">
         <v>1.33</v>
@@ -5062,7 +5062,7 @@
         <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WIDwXGr3</t>
+          <t>MNIj0jM0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.75</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="n">
         <v>10</v>
       </c>
-      <c r="Z2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>15</v>
       </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1293,61 +1293,61 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>29</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1374,25 +1374,25 @@
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1407,34 +1407,34 @@
         <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1487,16 +1487,16 @@
         <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1505,10 +1505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6kmEGWG0</t>
+          <t>lzKILqFr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,718 +1638,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>13</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU7" t="n">
         <v>7</v>
       </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AV7" t="n">
         <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
         <v>126</v>
       </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>29QzHFUP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ENGLAND - LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S4yNEAoD</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ENGLAND - LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Stockport County</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lzKILqFr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Columbus Crew</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>19</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>11</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD10" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,22 +753,22 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,46 +789,46 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -837,16 +837,16 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
@@ -855,13 +855,13 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SUnqo1Lh</t>
+          <t>YkO97aAL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,47 +1274,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1335,76 +1335,76 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
         <v>7</v>
       </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
       <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>19</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
         <v>67</v>
       </c>
-      <c r="AG5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP5" t="n">
         <v>26</v>
       </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>34</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>301</v>
@@ -1413,40 +1413,40 @@
         <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vV9BlFAm</t>
+          <t>0QDAlK3q</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,65 +1456,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>2.38</v>
@@ -1523,76 +1523,76 @@
         <v>1.53</v>
       </c>
       <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
         <v>5</v>
       </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1601,209 +1601,755 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
         <v>34</v>
       </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>SUnqo1Lh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>vV9BlFAm</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>lzKILqFr</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>29/10/2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>USA - MLS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Columbus Crew</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>New York Red Bulls</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I9" t="n">
         <v>4.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
         <v>2.25</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K9" t="n">
         <v>2.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L9" t="n">
         <v>4.33</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M9" t="n">
         <v>1.03</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N9" t="n">
         <v>17</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O9" t="n">
         <v>1.17</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.35</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S9" t="n">
         <v>1.25</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T9" t="n">
         <v>3.75</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U9" t="n">
         <v>1.53</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V9" t="n">
         <v>2.38</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W9" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X9" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y9" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z9" t="n">
         <v>15</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA9" t="n">
         <v>12</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB9" t="n">
         <v>19</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC9" t="n">
         <v>19</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE9" t="n">
         <v>12</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF9" t="n">
         <v>34</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG9" t="n">
         <v>101</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH9" t="n">
         <v>17</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI9" t="n">
         <v>26</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ9" t="n">
         <v>13</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK9" t="n">
         <v>41</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL9" t="n">
         <v>29</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM9" t="n">
         <v>29</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN9" t="n">
         <v>4</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP9" t="n">
         <v>15</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ9" t="n">
         <v>26</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS9" t="n">
         <v>81</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT9" t="n">
         <v>3.75</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU9" t="n">
         <v>7</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV9" t="n">
         <v>41</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY9" t="n">
         <v>23</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ9" t="n">
         <v>67</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB9" t="n">
         <v>126</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC9" t="n">
         <v>351</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CYtcF2g2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:50</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -795,7 +795,7 @@
         <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -804,13 +804,13 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
@@ -837,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1192,19 +1192,19 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1231,13 +1231,13 @@
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>29</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1478,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1705,16 +1705,16 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
@@ -1741,31 +1741,31 @@
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1914,7 +1914,7 @@
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1968,7 +1968,7 @@
         <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1977,7 +1977,7 @@
         <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>501</v>
@@ -2215,7 +2215,7 @@
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -756,10 +756,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1144,7 +1144,7 @@
         <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,10 +1153,10 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -1168,7 +1168,7 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1207,19 +1207,19 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1240,7 +1240,7 @@
         <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1249,7 +1249,7 @@
         <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1478,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.65</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1508,7 +1508,7 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUnqo1Lh</t>
+          <t>vV9BlFAm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1690,7 +1690,7 @@
         <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1699,25 +1699,25 @@
         <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1726,79 +1726,79 @@
         <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vV9BlFAm</t>
+          <t>nsYpYgQ6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,55 +1830,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
       </c>
       <c r="U8" t="n">
         <v>2.38</v>
@@ -1890,73 +1890,73 @@
         <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
       </c>
       <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
         <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
         <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>10</v>
@@ -1965,22 +1965,22 @@
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
@@ -2168,7 +2168,7 @@
         <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
@@ -2215,7 +2215,7 @@
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -756,10 +756,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -980,16 +980,16 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1037,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1067,10 +1067,10 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1144,7 +1144,7 @@
         <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1508,7 +1508,7 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1672,7 +1672,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1687,10 +1687,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1726,7 +1726,7 @@
         <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1750,7 +1750,7 @@
         <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
@@ -1872,7 +1872,7 @@
         <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2045,34 +2045,34 @@
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.57</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2087,19 +2087,19 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -2108,10 +2108,10 @@
         <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
@@ -2129,7 +2129,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2138,10 +2138,10 @@
         <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2159,7 +2159,7 @@
         <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>126</v>
@@ -2168,7 +2168,7 @@
         <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -935,7 +935,7 @@
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1308,13 +1308,13 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1389,7 +1389,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1422,7 +1422,7 @@
         <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,7 +1431,7 @@
         <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1499,34 +1499,34 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1544,19 +1544,19 @@
         <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
@@ -1568,7 +1568,7 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
@@ -1577,10 +1577,10 @@
         <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>67</v>
@@ -1592,28 +1592,28 @@
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW6" t="n">
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1675,10 +1675,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1687,10 +1687,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1726,7 +1726,7 @@
         <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1842,7 +1842,7 @@
         <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
         <v>6.5</v>
@@ -1860,7 +1860,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1896,16 +1896,16 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
@@ -1923,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1941,13 +1941,13 @@
         <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2045,16 +2045,16 @@
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2081,16 +2081,16 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2105,13 +2105,13 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
@@ -2129,7 +2129,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2159,7 +2159,7 @@
         <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Czz19Lu9</t>
+          <t>YkO97aAL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,88 +920,88 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.25</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1010,67 +1010,67 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8Uks6nZG</t>
+          <t>0QDAlK3q</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="V4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
         <v>5</v>
       </c>
-      <c r="X4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>67</v>
       </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
         <v>126</v>
       </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YkO97aAL</t>
+          <t>vV9BlFAm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,47 +1274,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1329,22 +1329,22 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1362,13 +1362,13 @@
         <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1395,7 +1395,7 @@
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1410,7 +1410,7 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>10</v>
@@ -1422,7 +1422,7 @@
         <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,22 +1431,22 @@
         <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0QDAlK3q</t>
+          <t>nsYpYgQ6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,95 +1456,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
         <v>6</v>
       </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1553,82 +1553,82 @@
         <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vV9BlFAm</t>
+          <t>lzKILqFr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.57</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>2.25</v>
       </c>
-      <c r="U7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
       <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
         <v>3.5</v>
       </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
         <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
         <v>126</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BC7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD7" t="n">
         <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nsYpYgQ6</t>
+          <t>CYtcF2g2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,536 +1820,172 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.2</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.57</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
       </c>
       <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
         <v>41</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
         <v>23</v>
       </c>
-      <c r="AF8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AZ8" t="n">
         <v>51</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AN8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>201</v>
-      </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lzKILqFr</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Columbus Crew</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CYtcF2g2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>15</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD10" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -1150,7 +1150,7 @@
         <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -1335,10 +1335,10 @@
         <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1350,10 +1350,10 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1377,13 +1377,13 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1392,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
         <v>9.5</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
         <v>34</v>
@@ -1428,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>5.5</v>
@@ -941,10 +941,10 @@
         <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -953,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -965,10 +965,10 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -989,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
@@ -1031,7 +1031,7 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1046,7 +1046,7 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1117,7 +1117,7 @@
         <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1126,13 +1126,13 @@
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1159,10 +1159,10 @@
         <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>101</v>
@@ -1204,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1237,13 +1237,13 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1311,22 +1311,22 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1493,10 +1493,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1517,10 +1517,10 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1583,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1613,7 +1613,7 @@
         <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lzKILqFr</t>
+          <t>CYtcF2g2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,55 +1648,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.57</v>
@@ -1708,91 +1708,91 @@
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
         <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
@@ -1801,191 +1801,9 @@
         <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CYtcF2g2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD8" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -759,10 +759,10 @@
         <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -771,16 +771,16 @@
         <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,19 +789,19 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>9.5</v>
@@ -813,19 +813,19 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>81</v>
@@ -843,10 +843,10 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
@@ -861,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1126,13 +1126,13 @@
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1150,7 +1150,7 @@
         <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1159,10 +1159,10 @@
         <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1192,7 +1192,7 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>11</v>
@@ -1204,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1213,7 +1213,7 @@
         <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
@@ -1237,13 +1237,13 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vV9BlFAm</t>
+          <t>nsYpYgQ6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,37 +1284,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1323,16 +1323,16 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>2.5</v>
@@ -1344,25 +1344,25 @@
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1371,46 +1371,46 @@
         <v>101</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>10</v>
@@ -1419,10 +1419,10 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,10 +1431,10 @@
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nsYpYgQ6</t>
+          <t>CYtcF2g2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,354 +1456,172 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.75</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.57</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CYtcF2g2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD7" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -777,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -935,10 +935,10 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -971,22 +971,22 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1067,7 +1067,7 @@
         <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1129,10 +1129,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1150,7 +1150,7 @@
         <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1505,16 +1505,16 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>1.57</v>
@@ -1526,13 +1526,13 @@
         <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1541,13 +1541,13 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>34</v>
@@ -1559,16 +1559,16 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
@@ -777,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
         <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -867,13 +867,13 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,13 +882,13 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -971,73 +971,73 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1049,28 +1049,28 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>126</v>
       </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1129,10 +1129,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1305,10 +1305,10 @@
         <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1317,34 +1317,34 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.44</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.57</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1356,25 +1356,25 @@
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1389,7 +1389,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.25</v>
@@ -1401,16 +1401,16 @@
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MNIj0jM0</t>
+          <t>YkO97aAL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>19</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
         <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YkO97aAL</t>
+          <t>0QDAlK3q</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,151 +920,151 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>19</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>67</v>
       </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AR3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
         <v>19</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AY3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AZ3" t="n">
         <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0QDAlK3q</t>
+          <t>nsYpYgQ6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
         <v>5.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
         <v>34</v>
       </c>
-      <c r="AA4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nsYpYgQ6</t>
+          <t>CYtcF2g2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,354 +1274,172 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.75</v>
       </c>
-      <c r="I5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.1</v>
       </c>
-      <c r="L5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.25</v>
       </c>
-      <c r="V5" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CYtcF2g2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD6" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YkO97aAL</t>
+          <t>nsYpYgQ6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.1</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.44</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX2" t="n">
         <v>41</v>
       </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AY2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AZ2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA2" t="n">
         <v>201</v>
       </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BB2" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>81</v>
-      </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0QDAlK3q</t>
+          <t>CYtcF2g2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,536 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.33</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.73</v>
-      </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>12</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
         <v>13</v>
       </c>
-      <c r="Z3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
         <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
         <v>29</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>41</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="BB3" t="n">
         <v>126</v>
       </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>nsYpYgQ6</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:10</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pereira</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Envigado</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CYtcF2g2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD5" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,188 +897,6 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CYtcF2g2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>151</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
